--- a/config_6.8/activity_052_qfhl_config.xlsx
+++ b/config_6.8/activity_052_qfhl_config.xlsx
@@ -37,31 +37,31 @@
     <t>server_award_id</t>
   </si>
   <si>
-    <t>activity_icon_mdkt</t>
+    <t>activity_icon_gift151_mdkt</t>
   </si>
   <si>
     <t>美的空调</t>
   </si>
   <si>
-    <t>activity_icon_pbdn</t>
+    <t>activity_icon_gift151_pbdn</t>
   </si>
   <si>
     <t>平板电脑</t>
   </si>
   <si>
-    <t>activity_icon_kl</t>
+    <t>activity_icon_gift151_kl</t>
   </si>
   <si>
     <t>可乐12瓶</t>
   </si>
   <si>
-    <t>activity_icon_qzs1</t>
+    <t>activity_icon_gift151_qzs</t>
   </si>
   <si>
     <t>亲嘴烧30片</t>
   </si>
   <si>
-    <t>activity_icon_cj</t>
+    <t>activity_icon_gift151_cz</t>
   </si>
   <si>
     <t>抽纸五包</t>
@@ -136,7 +136,7 @@
     <t>offset</t>
   </si>
   <si>
-    <t>activity_icon_gift269_sqm</t>
+    <t>activity_icon_gift151_jlyy</t>
   </si>
   <si>
     <t>金龙鱼油900ml</t>
@@ -145,7 +145,7 @@
     <t>0,20,50,100,200,400</t>
   </si>
   <si>
-    <t>activity_icon_gift268_sqm</t>
+    <t>activity_icon_gift151_ysyn</t>
   </si>
   <si>
     <t>椰汁24盒</t>
@@ -154,7 +154,7 @@
     <t>0,100,500,1000,1500,2200</t>
   </si>
   <si>
-    <t>activity_icon_gift103_xlx</t>
+    <t>activity_icon_gift151_dg</t>
   </si>
   <si>
     <t>美的电火锅</t>
@@ -168,9 +168,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -194,11 +194,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,6 +245,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -217,52 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,22 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -300,24 +315,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,8 +544,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,41 +606,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,7 +619,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,130 +661,130 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -798,8 +798,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1194,11 +1194,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2">
@@ -1207,15 +1207,15 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>12032</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
@@ -1224,15 +1224,15 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>12033</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="15.75" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -1241,15 +1241,15 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>12034</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="15.75" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -1258,15 +1258,15 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>12035</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="15.75" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6">
@@ -1275,7 +1275,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>12036</v>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>12037</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>12038</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>12039</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>12040</v>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>12041</v>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>12042</v>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>12043</v>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>12044</v>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>12045</v>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>12046</v>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1562,11 +1562,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>

--- a/config_6.8/activity_052_qfhl_config.xlsx
+++ b/config_6.8/activity_052_qfhl_config.xlsx
@@ -169,8 +169,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -195,43 +195,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,60 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -308,31 +294,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,15 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,6 +552,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,11 +597,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +627,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,16 +658,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,112 +679,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -798,8 +798,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1198,7 +1198,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2">
@@ -1207,15 +1207,15 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
-        <v>12032</v>
+      <c r="F2" s="3">
+        <v>12073</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3">
@@ -1224,15 +1224,15 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
-        <v>12033</v>
+      <c r="F3" s="3">
+        <v>12074</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -1241,15 +1241,15 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
-        <v>12034</v>
+      <c r="F4" s="3">
+        <v>12075</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5">
@@ -1258,15 +1258,15 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2">
-        <v>12035</v>
+      <c r="F5" s="3">
+        <v>12076</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6">
@@ -1275,8 +1275,8 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
-        <v>12036</v>
+      <c r="F6" s="3">
+        <v>12077</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1292,8 +1292,8 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2">
-        <v>12037</v>
+      <c r="F7" s="3">
+        <v>12078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1309,8 +1309,8 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2">
-        <v>12038</v>
+      <c r="F8" s="3">
+        <v>12079</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1326,8 +1326,8 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2">
-        <v>12039</v>
+      <c r="F9" s="3">
+        <v>12080</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1343,8 +1343,8 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2">
-        <v>12040</v>
+      <c r="F10" s="3">
+        <v>12081</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1360,8 +1360,8 @@
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2">
-        <v>12041</v>
+      <c r="F11" s="3">
+        <v>12082</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
@@ -1377,8 +1377,8 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2">
-        <v>12042</v>
+      <c r="F12" s="3">
+        <v>12083</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
@@ -1394,8 +1394,8 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2">
-        <v>12043</v>
+      <c r="F13" s="3">
+        <v>12084</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1411,8 +1411,8 @@
       <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="2">
-        <v>12044</v>
+      <c r="F14" s="3">
+        <v>12085</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:6">
@@ -1428,8 +1428,8 @@
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2">
-        <v>12045</v>
+      <c r="F15" s="3">
+        <v>12086</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:6">
@@ -1445,8 +1445,8 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="2">
-        <v>12046</v>
+      <c r="F16" s="3">
+        <v>12087</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/activity_052_qfhl_config.xlsx
+++ b/config_6.8/activity_052_qfhl_config.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Award1" sheetId="1" r:id="rId1"/>
-    <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="Box_exchange" sheetId="3" r:id="rId3"/>
+    <sheet name="cfg" sheetId="5" r:id="rId1"/>
+    <sheet name="Award1" sheetId="1" r:id="rId2"/>
+    <sheet name="All_Task" sheetId="2" r:id="rId3"/>
     <sheet name="Award_sw" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,9 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+  <si>
+    <t>line</t>
+  </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>pay_item_key</t>
+  </si>
+  <si>
+    <t>PerNeed</t>
+  </si>
+  <si>
+    <t>s_time</t>
+  </si>
+  <si>
+    <t>e_time</t>
+  </si>
+  <si>
+    <t>condiy_key</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0","prop_grade",</t>
+  </si>
+  <si>
+    <t>300,10</t>
   </si>
   <si>
     <t>img</t>
@@ -168,9 +192,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -195,6 +219,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,16 +256,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,8 +339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,100 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,187 +371,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,30 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -597,9 +597,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,11 +632,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,10 +682,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,133 +694,130 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,9 +1182,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1623110400</v>
+      </c>
+      <c r="F2">
+        <v>1623686399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1176,22 +1264,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -1199,15 +1287,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
         <v>12073</v>
       </c>
     </row>
@@ -1216,15 +1304,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
         <v>12074</v>
       </c>
     </row>
@@ -1233,15 +1321,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
         <v>12075</v>
       </c>
     </row>
@@ -1250,15 +1338,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
         <v>12076</v>
       </c>
     </row>
@@ -1267,15 +1355,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
         <v>12077</v>
       </c>
     </row>
@@ -1283,16 +1371,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
         <v>12078</v>
       </c>
     </row>
@@ -1300,16 +1388,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2">
         <v>12079</v>
       </c>
     </row>
@@ -1317,16 +1405,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
         <v>12080</v>
       </c>
     </row>
@@ -1334,16 +1422,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
         <v>12081</v>
       </c>
     </row>
@@ -1351,16 +1439,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
         <v>12082</v>
       </c>
     </row>
@@ -1368,16 +1456,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
         <v>12083</v>
       </c>
     </row>
@@ -1385,16 +1473,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2">
         <v>12084</v>
       </c>
     </row>
@@ -1402,16 +1490,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2">
         <v>12085</v>
       </c>
     </row>
@@ -1419,16 +1507,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>26</v>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
         <v>12086</v>
       </c>
     </row>
@@ -1436,67 +1524,17 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2">
         <v>12087</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1000655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1000656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1000657</v>
       </c>
     </row>
   </sheetData>
@@ -1509,43 +1547,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>1000655</v>
+      </c>
+      <c r="C2">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>1000656</v>
+      </c>
+      <c r="C3">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <v>1000657</v>
+      </c>
+      <c r="C4">
         <v>98</v>
       </c>
     </row>
@@ -1561,28 +1615,29 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
@@ -1590,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
@@ -1604,13 +1659,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
@@ -1618,13 +1673,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/activity_052_qfhl_config.xlsx
+++ b/config_6.8/activity_052_qfhl_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg" sheetId="5" r:id="rId1"/>
@@ -17,35 +17,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>line</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>pay_item_key</t>
+  </si>
+  <si>
+    <t>PerNeed</t>
+  </si>
+  <si>
+    <t>s_time</t>
+  </si>
+  <si>
+    <t>e_time</t>
+  </si>
+  <si>
+    <t>condiy_key</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0","prop_grade",</t>
+  </si>
+  <si>
+    <t>300,10</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>pay_item_key</t>
-  </si>
-  <si>
-    <t>PerNeed</t>
-  </si>
-  <si>
-    <t>s_time</t>
-  </si>
-  <si>
-    <t>e_time</t>
-  </si>
-  <si>
-    <t>condiy_key</t>
-  </si>
-  <si>
-    <t>"prop_fish_drop_act_0","prop_grade",</t>
-  </si>
-  <si>
-    <t>300,10</t>
-  </si>
-  <si>
     <t>img</t>
   </si>
   <si>
@@ -149,6 +152,18 @@
   </si>
   <si>
     <t>box_exchange_id</t>
+  </si>
+  <si>
+    <t>change_type</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_96</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_97</t>
+  </si>
+  <si>
+    <t>box_exchange_active_award_98</t>
   </si>
   <si>
     <t>image</t>
@@ -192,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -218,8 +233,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +291,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -248,38 +338,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,9 +364,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,60 +376,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +577,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,10 +627,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -609,8 +637,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,32 +672,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,7 +1200,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1252,7 +1267,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1264,22 +1279,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
@@ -1287,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>12073</v>
@@ -1304,13 +1319,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>12074</v>
@@ -1321,13 +1336,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>12075</v>
@@ -1338,13 +1353,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
         <v>12076</v>
@@ -1355,13 +1370,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>12077</v>
@@ -1372,13 +1387,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
         <v>12078</v>
@@ -1389,13 +1404,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>12079</v>
@@ -1406,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>12080</v>
@@ -1423,13 +1438,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>12081</v>
@@ -1440,13 +1455,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>12082</v>
@@ -1457,13 +1472,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2">
         <v>12083</v>
@@ -1474,13 +1489,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2">
         <v>12084</v>
@@ -1491,13 +1506,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2">
         <v>12085</v>
@@ -1508,13 +1523,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2">
         <v>12086</v>
@@ -1525,13 +1540,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2">
         <v>12087</v>
@@ -1547,30 +1562,34 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1580,8 +1599,11 @@
       <c r="C2">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1591,8 +1613,11 @@
       <c r="C3">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1601,6 +1626,9 @@
       </c>
       <c r="C4">
         <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1615,8 +1643,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1628,16 +1656,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
@@ -1645,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
@@ -1659,13 +1687,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
@@ -1673,13 +1701,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
